--- a/hardware/non-cve wifi module/gerbers 1.8 4layer/ithowifi-pos-xlsx.xlsx
+++ b/hardware/non-cve wifi module/gerbers 1.8 4layer/ithowifi-pos-xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/ownCloud/SoftwareDevelopment/ithowifi/hardware/non-cve wifi module/gerbers 1.8 4layer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD845B22-44BB-3046-912E-F5BAC6E2D712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57666735-0D73-2C4C-A719-C5E9CC0D9E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17780" yWindow="4820" windowWidth="16120" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,7 +995,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="F41:G41"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1082,7 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
